--- a/Code/Results/Cases/Case_4_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.23536718727386</v>
+        <v>10.44616561449082</v>
       </c>
       <c r="C2">
-        <v>6.564713246361308</v>
+        <v>3.782240501743753</v>
       </c>
       <c r="D2">
-        <v>7.052199981934665</v>
+        <v>6.017340911633282</v>
       </c>
       <c r="E2">
-        <v>14.50630009341742</v>
+        <v>12.05824923226895</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.89996244736422</v>
+        <v>55.25490992937782</v>
       </c>
       <c r="H2">
-        <v>18.13881399238079</v>
+        <v>20.11274330457283</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.85796709253952</v>
+        <v>9.894232612828695</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.27772665894497</v>
+        <v>14.35263990878995</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.36547052185687</v>
+        <v>10.29180863289551</v>
       </c>
       <c r="C3">
-        <v>6.185364071586775</v>
+        <v>3.595188410949474</v>
       </c>
       <c r="D3">
-        <v>6.55233900695371</v>
+        <v>5.904898994789359</v>
       </c>
       <c r="E3">
-        <v>13.60635684684115</v>
+        <v>11.80668895614482</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.75122373066436</v>
+        <v>54.22584642028062</v>
       </c>
       <c r="H3">
-        <v>17.55648735789497</v>
+        <v>19.9806304389955</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.1558960402172</v>
+        <v>9.820333475667416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.3034659628269</v>
+        <v>14.23655979040004</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.80400433014218</v>
+        <v>10.20030792529846</v>
       </c>
       <c r="C4">
-        <v>5.943050001409999</v>
+        <v>3.474234378597765</v>
       </c>
       <c r="D4">
-        <v>6.248065084077608</v>
+        <v>5.836658637638327</v>
       </c>
       <c r="E4">
-        <v>13.03711962706686</v>
+        <v>11.65306579453098</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>59.7772917332201</v>
+        <v>53.59138883576521</v>
       </c>
       <c r="H4">
-        <v>17.19878839507783</v>
+        <v>19.90128047695091</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.704181860946854</v>
+        <v>9.77871330759433</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.67640101823766</v>
+        <v>14.16939250023881</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.56822114061667</v>
+        <v>10.16390179478366</v>
       </c>
       <c r="C5">
-        <v>5.841919376800398</v>
+        <v>3.4234272829312</v>
       </c>
       <c r="D5">
-        <v>6.134128286059602</v>
+        <v>5.809092178733639</v>
       </c>
       <c r="E5">
-        <v>12.80107881851789</v>
+        <v>11.59076375591952</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>58.96334152663456</v>
+        <v>53.33247363149819</v>
       </c>
       <c r="H5">
-        <v>17.05308162415671</v>
+        <v>19.86940645480706</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.514859271010954</v>
+        <v>9.762716629284329</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.41350147050198</v>
+        <v>14.14308076871943</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.52864491560766</v>
+        <v>10.15791144717146</v>
       </c>
       <c r="C6">
-        <v>5.824982125873195</v>
+        <v>3.41489974221901</v>
       </c>
       <c r="D6">
-        <v>6.115078292305792</v>
+        <v>5.804530606262926</v>
       </c>
       <c r="E6">
-        <v>12.76164302726186</v>
+        <v>11.58043937074157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>58.82763052514354</v>
+        <v>53.28946718189618</v>
       </c>
       <c r="H6">
-        <v>17.0288937103373</v>
+        <v>19.86414217078619</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.483104203387004</v>
+        <v>9.760119148127407</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.36939945554204</v>
+        <v>14.13877645884574</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.80085287685633</v>
+        <v>10.19981329716413</v>
       </c>
       <c r="C7">
-        <v>5.941695802106695</v>
+        <v>3.473555294250494</v>
       </c>
       <c r="D7">
-        <v>6.246537325346726</v>
+        <v>5.836285832503584</v>
       </c>
       <c r="E7">
-        <v>13.03395258846518</v>
+        <v>11.65222422984822</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>59.7663522388021</v>
+        <v>53.58789812431935</v>
       </c>
       <c r="H7">
-        <v>17.19682296963138</v>
+        <v>19.90084872124389</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.701649893349868</v>
+        <v>9.7784936434439</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.67288541823256</v>
+        <v>14.16903332733062</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.94103763890751</v>
+        <v>10.39229871730925</v>
       </c>
       <c r="C8">
-        <v>6.435845324497595</v>
+        <v>3.719020966642048</v>
       </c>
       <c r="D8">
-        <v>6.883098413502388</v>
+        <v>5.978429594457465</v>
       </c>
       <c r="E8">
-        <v>14.19951436949053</v>
+        <v>11.97139166269467</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>63.82304477031838</v>
+        <v>54.90080100046625</v>
       </c>
       <c r="H8">
-        <v>17.93811136189162</v>
+        <v>20.06683441494997</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.62013969797315</v>
+        <v>9.867985549205542</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.94772392123983</v>
+        <v>14.31178000967453</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.9650036257412</v>
+        <v>10.79313394208279</v>
       </c>
       <c r="C9">
-        <v>7.331989957997537</v>
+        <v>4.151367216848188</v>
       </c>
       <c r="D9">
-        <v>8.04530938586176</v>
+        <v>6.261726394462505</v>
       </c>
       <c r="E9">
-        <v>16.39231503719952</v>
+        <v>12.60001383764587</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.43570885663513</v>
+        <v>57.44238446168934</v>
       </c>
       <c r="H9">
-        <v>19.38726900137153</v>
+        <v>20.40557179026659</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.26066067185911</v>
+        <v>10.07229520403238</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.22418052051301</v>
+        <v>14.62300389107792</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.330391017651</v>
+        <v>11.09830804393692</v>
       </c>
       <c r="C10">
-        <v>7.949038918137616</v>
+        <v>4.43856154765359</v>
       </c>
       <c r="D10">
-        <v>8.828398106991431</v>
+        <v>6.470290787493203</v>
       </c>
       <c r="E10">
-        <v>18.04786286762693</v>
+        <v>13.05848481443277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.80416520431127</v>
+        <v>59.27363385115727</v>
       </c>
       <c r="H10">
-        <v>20.44627033182172</v>
+        <v>20.6614176874745</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.37327660502339</v>
+        <v>10.23854001784828</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.76920144845147</v>
+        <v>14.86889166315867</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.92698869250738</v>
+        <v>11.23870052558101</v>
       </c>
       <c r="C11">
-        <v>8.221677098200871</v>
+        <v>4.562528780822918</v>
       </c>
       <c r="D11">
-        <v>9.170277947089502</v>
+        <v>6.564789225074999</v>
       </c>
       <c r="E11">
-        <v>18.77490446055884</v>
+        <v>13.26531929404437</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.19750811014553</v>
+        <v>60.09571504569831</v>
       </c>
       <c r="H11">
-        <v>20.92665889924098</v>
+        <v>20.77907771442029</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.86072199592193</v>
+        <v>10.31733820307569</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.44664125577859</v>
+        <v>14.98406953259473</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.14954927140311</v>
+        <v>11.29202680788726</v>
       </c>
       <c r="C12">
-        <v>8.323850610273995</v>
+        <v>4.608507604934637</v>
       </c>
       <c r="D12">
-        <v>9.297767295377326</v>
+        <v>6.600481347357827</v>
       </c>
       <c r="E12">
-        <v>19.04671017143833</v>
+        <v>13.34331585813736</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.09697422636836</v>
+        <v>60.40519019156362</v>
       </c>
       <c r="H12">
-        <v>21.1083971344721</v>
+        <v>20.82379419140007</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.04275354404373</v>
+        <v>10.34760351992841</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.69973159034285</v>
+        <v>15.02812491395783</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10176334321227</v>
+        <v>11.28053578393008</v>
       </c>
       <c r="C13">
-        <v>8.301891645079481</v>
+        <v>4.598648210680108</v>
       </c>
       <c r="D13">
-        <v>9.27039639731697</v>
+        <v>6.592799103664258</v>
       </c>
       <c r="E13">
-        <v>18.98832385957266</v>
+        <v>13.32653366100309</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>79.90355788517428</v>
+        <v>60.33862441509054</v>
       </c>
       <c r="H13">
-        <v>21.06926366231859</v>
+        <v>20.8141568848335</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.00366103110194</v>
+        <v>10.3410668761122</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.64537347935445</v>
+        <v>15.01861783729153</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.94536515653303</v>
+        <v>11.24308480364242</v>
       </c>
       <c r="C14">
-        <v>8.230103820846592</v>
+        <v>4.566330844092743</v>
       </c>
       <c r="D14">
-        <v>9.180805565368853</v>
+        <v>6.567727699808787</v>
       </c>
       <c r="E14">
-        <v>18.79733492187068</v>
+        <v>13.27174311091498</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.27164326674153</v>
+        <v>60.12121381113609</v>
       </c>
       <c r="H14">
-        <v>20.94161388459956</v>
+        <v>20.78275346338094</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.87574818402186</v>
+        <v>10.31981978315734</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.46753082071941</v>
+        <v>14.98768539522145</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84913474044412</v>
+        <v>11.22016435115473</v>
       </c>
       <c r="C15">
-        <v>8.185995472889074</v>
+        <v>4.546409762091822</v>
       </c>
       <c r="D15">
-        <v>9.125674478425417</v>
+        <v>6.552357614810131</v>
       </c>
       <c r="E15">
-        <v>18.67989934502313</v>
+        <v>13.23813744632422</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.88369431559687</v>
+        <v>59.98779805633724</v>
       </c>
       <c r="H15">
-        <v>20.86340311186976</v>
+        <v>20.76353828969275</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.79706962126576</v>
+        <v>10.30685991715238</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.35815558177904</v>
+        <v>14.96879455332388</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.29092248425025</v>
+        <v>11.08915921080572</v>
       </c>
       <c r="C16">
-        <v>7.931066573141991</v>
+        <v>4.430325184303578</v>
       </c>
       <c r="D16">
-        <v>8.805774210062552</v>
+        <v>6.464104189467407</v>
       </c>
       <c r="E16">
-        <v>17.99984415763045</v>
+        <v>13.04492610678846</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.64678421204012</v>
+        <v>59.21966640348052</v>
       </c>
       <c r="H16">
-        <v>20.41484959345187</v>
+        <v>20.65375209351249</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.3410558863787</v>
+        <v>10.23345166134121</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.7244355306966</v>
+        <v>14.86142816455099</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.94231074223772</v>
+        <v>11.00914816431776</v>
       </c>
       <c r="C17">
-        <v>7.772671268254343</v>
+        <v>4.357396755556538</v>
       </c>
       <c r="D17">
-        <v>8.605911736819023</v>
+        <v>6.409839044840251</v>
       </c>
       <c r="E17">
-        <v>17.57613557029505</v>
+        <v>12.92589747612447</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>75.26209070529228</v>
+        <v>58.74545062527447</v>
       </c>
       <c r="H17">
-        <v>20.13933444323229</v>
+        <v>20.58671263983488</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.0566093861289</v>
+        <v>10.18920953902871</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.32930585693618</v>
+        <v>14.79638669590753</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.73947914443767</v>
+        <v>10.96327911589576</v>
       </c>
       <c r="C18">
-        <v>7.680801528895915</v>
+        <v>4.314821760104699</v>
       </c>
       <c r="D18">
-        <v>8.489599413842539</v>
+        <v>6.378593699177625</v>
       </c>
       <c r="E18">
-        <v>17.32995917517496</v>
+        <v>12.85727731343768</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.46103866586327</v>
+        <v>58.47167663127164</v>
       </c>
       <c r="H18">
-        <v>19.98073475370164</v>
+        <v>20.54827462395438</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.89123513749048</v>
+        <v>10.16406312073272</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.0996330948205</v>
+        <v>14.75929158855059</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.67040064416118</v>
+        <v>10.94777654467223</v>
       </c>
       <c r="C19">
-        <v>7.649562112859217</v>
+        <v>4.300298815503088</v>
       </c>
       <c r="D19">
-        <v>8.449982428003365</v>
+        <v>6.368009999434339</v>
       </c>
       <c r="E19">
-        <v>17.24617693666081</v>
+        <v>12.83401904078981</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>74.18902111101696</v>
+        <v>58.37881459696979</v>
       </c>
       <c r="H19">
-        <v>19.92701303860123</v>
+        <v>20.53528167324315</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.83493477725298</v>
+        <v>10.15560148514055</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.02145083477891</v>
+        <v>14.74678706491566</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.97965993490767</v>
+        <v>11.01765028814169</v>
       </c>
       <c r="C20">
-        <v>7.789611279435974</v>
+        <v>4.365225194896342</v>
       </c>
       <c r="D20">
-        <v>8.627327225690602</v>
+        <v>6.415619406770199</v>
       </c>
       <c r="E20">
-        <v>17.62149410564441</v>
+        <v>12.93858522003759</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.40997033748408</v>
+        <v>58.79603889645099</v>
       </c>
       <c r="H20">
-        <v>20.16867697013809</v>
+        <v>20.59383670854233</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.08707128282462</v>
+        <v>10.19388830509117</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.37161550883451</v>
+        <v>14.80327813827161</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.99139279961644</v>
+        <v>11.25408114052739</v>
       </c>
       <c r="C21">
-        <v>8.251217853167658</v>
+        <v>4.575849452570534</v>
       </c>
       <c r="D21">
-        <v>9.207173347021829</v>
+        <v>6.575094579469251</v>
       </c>
       <c r="E21">
-        <v>18.85352617092742</v>
+        <v>13.28784590898699</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.45743539020783</v>
+        <v>60.18512416600637</v>
       </c>
       <c r="H21">
-        <v>20.9791121398554</v>
+        <v>20.79197321287999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.91338743013019</v>
+        <v>10.326049247205</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.51985911005887</v>
+        <v>14.99675936533563</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.63313718006042</v>
+        <v>11.40952281742794</v>
       </c>
       <c r="C22">
-        <v>8.546728499041789</v>
+        <v>4.707879489460334</v>
       </c>
       <c r="D22">
-        <v>9.574684369101314</v>
+        <v>6.678766061987069</v>
       </c>
       <c r="E22">
-        <v>19.63841087560501</v>
+        <v>13.51416767637662</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.06300784752193</v>
+        <v>61.08220226495835</v>
       </c>
       <c r="H22">
-        <v>21.50779308900282</v>
+        <v>20.9223958738272</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.43862490997693</v>
+        <v>10.41489356264529</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25036080948192</v>
+        <v>15.12575737595854</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.29234824196791</v>
+        <v>11.32649672733564</v>
       </c>
       <c r="C23">
-        <v>8.389540159930464</v>
+        <v>4.637928363668578</v>
       </c>
       <c r="D23">
-        <v>9.379552271785755</v>
+        <v>6.623497455506998</v>
       </c>
       <c r="E23">
-        <v>19.2212746673317</v>
+        <v>13.39357790246875</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.67589648819882</v>
+        <v>60.60448020331387</v>
       </c>
       <c r="H23">
-        <v>21.22570145051486</v>
+        <v>20.85270922271247</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.15960162561362</v>
+        <v>10.36725984501127</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.86222634012541</v>
+        <v>15.05668830561569</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.96278188421459</v>
+        <v>11.01380606708896</v>
       </c>
       <c r="C24">
-        <v>7.781955218055947</v>
+        <v>4.361687973892409</v>
       </c>
       <c r="D24">
-        <v>8.617649677755624</v>
+        <v>6.413006250497877</v>
       </c>
       <c r="E24">
-        <v>17.60099556782654</v>
+        <v>12.93284967376543</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75.34312945778873</v>
+        <v>58.77317147375584</v>
       </c>
       <c r="H24">
-        <v>20.15541184518682</v>
+        <v>20.59061559182435</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.07330520716384</v>
+        <v>10.19177213257436</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.35249514093728</v>
+        <v>14.800161585789</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43940998384732</v>
+        <v>10.68256247577874</v>
       </c>
       <c r="C25">
-        <v>7.097085247436508</v>
+        <v>4.039721910978551</v>
       </c>
       <c r="D25">
-        <v>7.743648534343661</v>
+        <v>6.184846114730412</v>
       </c>
       <c r="E25">
-        <v>15.78310389107839</v>
+        <v>12.43019486242222</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.41515658523463</v>
+        <v>56.76003424880606</v>
       </c>
       <c r="H25">
-        <v>18.99610041005755</v>
+        <v>20.31262747223261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.83355954839015</v>
+        <v>10.014080264389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.63142319060151</v>
+        <v>14.5356433801687</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.44616561449082</v>
+        <v>12.23536718727375</v>
       </c>
       <c r="C2">
-        <v>3.782240501743753</v>
+        <v>6.564713246361411</v>
       </c>
       <c r="D2">
-        <v>6.017340911633282</v>
+        <v>7.052199981934648</v>
       </c>
       <c r="E2">
-        <v>12.05824923226895</v>
+        <v>14.50630009341741</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.25490992937782</v>
+        <v>64.89996244736423</v>
       </c>
       <c r="H2">
-        <v>20.11274330457283</v>
+        <v>18.13881399238073</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.894232612828695</v>
+        <v>10.85796709253946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.35263990878995</v>
+        <v>14.2777266589449</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.29180863289551</v>
+        <v>11.36547052185696</v>
       </c>
       <c r="C3">
-        <v>3.595188410949474</v>
+        <v>6.185364071586983</v>
       </c>
       <c r="D3">
-        <v>5.904898994789359</v>
+        <v>6.552339006953956</v>
       </c>
       <c r="E3">
-        <v>11.80668895614482</v>
+        <v>13.60635684684113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.22584642028062</v>
+        <v>61.75122373066417</v>
       </c>
       <c r="H3">
-        <v>19.9806304389955</v>
+        <v>17.55648735789487</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.820333475667416</v>
+        <v>10.15589604021728</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.23655979040004</v>
+        <v>13.30346596282692</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.20030792529846</v>
+        <v>10.80400433014218</v>
       </c>
       <c r="C4">
-        <v>3.474234378597765</v>
+        <v>5.943050001410103</v>
       </c>
       <c r="D4">
-        <v>5.836658637638327</v>
+        <v>6.248065084077598</v>
       </c>
       <c r="E4">
-        <v>11.65306579453098</v>
+        <v>13.03711962706685</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>53.59138883576521</v>
+        <v>59.7772917332202</v>
       </c>
       <c r="H4">
-        <v>19.90128047695091</v>
+        <v>17.19878839507787</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.77871330759433</v>
+        <v>9.704181860946834</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.16939250023881</v>
+        <v>12.67640101823765</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.16390179478366</v>
+        <v>10.5682211406167</v>
       </c>
       <c r="C5">
-        <v>3.4234272829312</v>
+        <v>5.841919376800563</v>
       </c>
       <c r="D5">
-        <v>5.809092178733639</v>
+        <v>6.134128286059638</v>
       </c>
       <c r="E5">
-        <v>11.59076375591952</v>
+        <v>12.80107881851796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>53.33247363149819</v>
+        <v>58.96334152663452</v>
       </c>
       <c r="H5">
-        <v>19.86940645480706</v>
+        <v>17.05308162415661</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.762716629284329</v>
+        <v>9.514859271011014</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.14308076871943</v>
+        <v>12.413501470502</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.15791144717146</v>
+        <v>10.52864491560759</v>
       </c>
       <c r="C6">
-        <v>3.41489974221901</v>
+        <v>5.824982125873728</v>
       </c>
       <c r="D6">
-        <v>5.804530606262926</v>
+        <v>6.115078292305783</v>
       </c>
       <c r="E6">
-        <v>11.58043937074157</v>
+        <v>12.76164302726184</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>53.28946718189618</v>
+        <v>58.82763052514357</v>
       </c>
       <c r="H6">
-        <v>19.86414217078619</v>
+        <v>17.02889371033734</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.760119148127407</v>
+        <v>9.483104203387104</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.13877645884574</v>
+        <v>12.36939945554209</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.19981329716413</v>
+        <v>10.80085287685633</v>
       </c>
       <c r="C7">
-        <v>3.473555294250494</v>
+        <v>5.941695802106602</v>
       </c>
       <c r="D7">
-        <v>5.836285832503584</v>
+        <v>6.246537325346756</v>
       </c>
       <c r="E7">
-        <v>11.65222422984822</v>
+        <v>13.03395258846518</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>53.58789812431935</v>
+        <v>59.76635223880202</v>
       </c>
       <c r="H7">
-        <v>19.90084872124389</v>
+        <v>17.19682296963135</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.7784936434439</v>
+        <v>9.701649893349868</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.16903332733062</v>
+        <v>12.67288541823258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.39229871730925</v>
+        <v>11.94103763890746</v>
       </c>
       <c r="C8">
-        <v>3.719020966642048</v>
+        <v>6.435845324497379</v>
       </c>
       <c r="D8">
-        <v>5.978429594457465</v>
+        <v>6.883098413502502</v>
       </c>
       <c r="E8">
-        <v>11.97139166269467</v>
+        <v>14.19951436949056</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.90080100046625</v>
+        <v>63.82304477031854</v>
       </c>
       <c r="H8">
-        <v>20.06683441494997</v>
+        <v>17.93811136189162</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.867985549205542</v>
+        <v>10.62013969797308</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.31178000967453</v>
+        <v>13.94772392123982</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.79313394208279</v>
+        <v>13.96500362574128</v>
       </c>
       <c r="C9">
-        <v>4.151367216848188</v>
+        <v>7.331989957997423</v>
       </c>
       <c r="D9">
-        <v>6.261726394462505</v>
+        <v>8.045309385861813</v>
       </c>
       <c r="E9">
-        <v>12.60001383764587</v>
+        <v>16.39231503719952</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>57.44238446168934</v>
+        <v>71.43570885663512</v>
       </c>
       <c r="H9">
-        <v>20.40557179026659</v>
+        <v>19.38726900137153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.07229520403238</v>
+        <v>12.26066067185916</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.62300389107792</v>
+        <v>16.22418052051303</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.09830804393692</v>
+        <v>15.33039101765094</v>
       </c>
       <c r="C10">
-        <v>4.43856154765359</v>
+        <v>7.949038918137504</v>
       </c>
       <c r="D10">
-        <v>6.470290787493203</v>
+        <v>8.828398106991415</v>
       </c>
       <c r="E10">
-        <v>13.05848481443277</v>
+        <v>18.04786286762685</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>59.27363385115727</v>
+        <v>76.80416520431127</v>
       </c>
       <c r="H10">
-        <v>20.6614176874745</v>
+        <v>20.44627033182181</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.23854001784828</v>
+        <v>13.37327660502331</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.86889166315867</v>
+        <v>17.76920144845139</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.23870052558101</v>
+        <v>15.9269886925073</v>
       </c>
       <c r="C11">
-        <v>4.562528780822918</v>
+        <v>8.221677098200978</v>
       </c>
       <c r="D11">
-        <v>6.564789225074999</v>
+        <v>9.170277947089431</v>
       </c>
       <c r="E11">
-        <v>13.26531929404437</v>
+        <v>18.77490446055878</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60.09571504569831</v>
+        <v>79.19750811014529</v>
       </c>
       <c r="H11">
-        <v>20.77907771442029</v>
+        <v>20.92665889924101</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.31733820307569</v>
+        <v>13.86072199592184</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.98406953259473</v>
+        <v>18.44664125577853</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.29202680788726</v>
+        <v>16.14954927140315</v>
       </c>
       <c r="C12">
-        <v>4.608507604934637</v>
+        <v>8.323850610274047</v>
       </c>
       <c r="D12">
-        <v>6.600481347357827</v>
+        <v>9.297767295377442</v>
       </c>
       <c r="E12">
-        <v>13.34331585813736</v>
+        <v>19.04671017143848</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>60.40519019156362</v>
+        <v>80.09697422636864</v>
       </c>
       <c r="H12">
-        <v>20.82379419140007</v>
+        <v>21.10839713447214</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.34760351992841</v>
+        <v>14.04275354404375</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.02812491395783</v>
+        <v>18.69973159034297</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.28053578393008</v>
+        <v>16.10176334321245</v>
       </c>
       <c r="C13">
-        <v>4.598648210680108</v>
+        <v>8.30189164507923</v>
       </c>
       <c r="D13">
-        <v>6.592799103664258</v>
+        <v>9.270396397316958</v>
       </c>
       <c r="E13">
-        <v>13.32653366100309</v>
+        <v>18.98832385957264</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>60.33862441509054</v>
+        <v>79.90355788517465</v>
       </c>
       <c r="H13">
-        <v>20.8141568848335</v>
+        <v>21.06926366231862</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.3410668761122</v>
+        <v>14.00366103110203</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.01861783729153</v>
+        <v>18.64537347935444</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.24308480364242</v>
+        <v>15.94536515653306</v>
       </c>
       <c r="C14">
-        <v>4.566330844092743</v>
+        <v>8.230103820846359</v>
       </c>
       <c r="D14">
-        <v>6.567727699808787</v>
+        <v>9.180805565368795</v>
       </c>
       <c r="E14">
-        <v>13.27174311091498</v>
+        <v>18.79733492187068</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60.12121381113609</v>
+        <v>79.27164326674165</v>
       </c>
       <c r="H14">
-        <v>20.78275346338094</v>
+        <v>20.94161388459962</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.31981978315734</v>
+        <v>13.87574818402183</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.98768539522145</v>
+        <v>18.46753082071939</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.22016435115473</v>
+        <v>15.84913474044423</v>
       </c>
       <c r="C15">
-        <v>4.546409762091822</v>
+        <v>8.185995472889136</v>
       </c>
       <c r="D15">
-        <v>6.552357614810131</v>
+        <v>9.125674478425431</v>
       </c>
       <c r="E15">
-        <v>13.23813744632422</v>
+        <v>18.67989934502316</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>59.98779805633724</v>
+        <v>78.88369431559732</v>
       </c>
       <c r="H15">
-        <v>20.76353828969275</v>
+        <v>20.86340311186987</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.30685991715238</v>
+        <v>13.79706962126584</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.96879455332388</v>
+        <v>18.35815558177908</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.08915921080572</v>
+        <v>15.29092248425025</v>
       </c>
       <c r="C16">
-        <v>4.430325184303578</v>
+        <v>7.931066573141808</v>
       </c>
       <c r="D16">
-        <v>6.464104189467407</v>
+        <v>8.805774210062538</v>
       </c>
       <c r="E16">
-        <v>13.04492610678846</v>
+        <v>17.99984415763035</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>59.21966640348052</v>
+        <v>76.64678421203983</v>
       </c>
       <c r="H16">
-        <v>20.65375209351249</v>
+        <v>20.41484959345179</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.23345166134121</v>
+        <v>13.34105588637868</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.86142816455099</v>
+        <v>17.72443553069654</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.00914816431776</v>
+        <v>14.94231074223786</v>
       </c>
       <c r="C17">
-        <v>4.357396755556538</v>
+        <v>7.772671268254519</v>
       </c>
       <c r="D17">
-        <v>6.409839044840251</v>
+        <v>8.605911736819069</v>
       </c>
       <c r="E17">
-        <v>12.92589747612447</v>
+        <v>17.57613557029504</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.74545062527447</v>
+        <v>75.26209070529221</v>
       </c>
       <c r="H17">
-        <v>20.58671263983488</v>
+        <v>20.13933444323227</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.18920953902871</v>
+        <v>13.05660938612909</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.79638669590753</v>
+        <v>17.32930585693628</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.96327911589576</v>
+        <v>14.73947914443763</v>
       </c>
       <c r="C18">
-        <v>4.314821760104699</v>
+        <v>7.680801528895814</v>
       </c>
       <c r="D18">
-        <v>6.378593699177625</v>
+        <v>8.489599413842591</v>
       </c>
       <c r="E18">
-        <v>12.85727731343768</v>
+        <v>17.32995917517498</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.47167663127164</v>
+        <v>74.46103866586338</v>
       </c>
       <c r="H18">
-        <v>20.54827462395438</v>
+        <v>19.98073475370168</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.16406312073272</v>
+        <v>12.89123513749045</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.75929158855059</v>
+        <v>17.09963309482049</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.94777654467223</v>
+        <v>14.67040064416122</v>
       </c>
       <c r="C19">
-        <v>4.300298815503088</v>
+        <v>7.649562112859219</v>
       </c>
       <c r="D19">
-        <v>6.368009999434339</v>
+        <v>8.449982428003183</v>
       </c>
       <c r="E19">
-        <v>12.83401904078981</v>
+        <v>17.24617693666073</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>58.37881459696979</v>
+        <v>74.18902111101696</v>
       </c>
       <c r="H19">
-        <v>20.53528167324315</v>
+        <v>19.92701303860127</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.15560148514055</v>
+        <v>12.83493477725302</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.74678706491566</v>
+        <v>17.0214508347789</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.01765028814169</v>
+        <v>14.97965993490771</v>
       </c>
       <c r="C20">
-        <v>4.365225194896342</v>
+        <v>7.789611279436172</v>
       </c>
       <c r="D20">
-        <v>6.415619406770199</v>
+        <v>8.627327225690602</v>
       </c>
       <c r="E20">
-        <v>12.93858522003759</v>
+        <v>17.62149410564438</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.79603889645099</v>
+        <v>75.40997033748418</v>
       </c>
       <c r="H20">
-        <v>20.59383670854233</v>
+        <v>20.16867697013808</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.19388830509117</v>
+        <v>13.08707128282469</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.80327813827161</v>
+        <v>17.37161550883452</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.25408114052739</v>
+        <v>15.99139279961637</v>
       </c>
       <c r="C21">
-        <v>4.575849452570534</v>
+        <v>8.25121785316791</v>
       </c>
       <c r="D21">
-        <v>6.575094579469251</v>
+        <v>9.207173347021728</v>
       </c>
       <c r="E21">
-        <v>13.28784590898699</v>
+        <v>18.85352617092742</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>60.18512416600637</v>
+        <v>79.45743539020769</v>
       </c>
       <c r="H21">
-        <v>20.79197321287999</v>
+        <v>20.97911213985544</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.326049247205</v>
+        <v>13.91338743013017</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.99675936533563</v>
+        <v>18.51985911005888</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.40952281742794</v>
+        <v>16.63313718006058</v>
       </c>
       <c r="C22">
-        <v>4.707879489460334</v>
+        <v>8.546728499041759</v>
       </c>
       <c r="D22">
-        <v>6.678766061987069</v>
+        <v>9.5746843691013</v>
       </c>
       <c r="E22">
-        <v>13.51416767637662</v>
+        <v>19.6384108756051</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.08220226495835</v>
+        <v>82.0630078475219</v>
       </c>
       <c r="H22">
-        <v>20.9223958738272</v>
+        <v>21.50779308900281</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.41489356264529</v>
+        <v>14.43862490997704</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.12575737595854</v>
+        <v>19.25036080948205</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.32649672733564</v>
+        <v>16.29234824196788</v>
       </c>
       <c r="C23">
-        <v>4.637928363668578</v>
+        <v>8.389540159930235</v>
       </c>
       <c r="D23">
-        <v>6.623497455506998</v>
+        <v>9.379552271785812</v>
       </c>
       <c r="E23">
-        <v>13.39357790246875</v>
+        <v>19.22127466733172</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.60448020331387</v>
+        <v>80.6758964881984</v>
       </c>
       <c r="H23">
-        <v>20.85270922271247</v>
+        <v>21.2257014505148</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.36725984501127</v>
+        <v>14.15960162561349</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.05668830561569</v>
+        <v>18.86222634012539</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.01380606708896</v>
+        <v>14.96278188421455</v>
       </c>
       <c r="C24">
-        <v>4.361687973892409</v>
+        <v>7.781955218056042</v>
       </c>
       <c r="D24">
-        <v>6.413006250497877</v>
+        <v>8.617649677755558</v>
       </c>
       <c r="E24">
-        <v>12.93284967376543</v>
+        <v>17.60099556782655</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.77317147375584</v>
+        <v>75.34312945778863</v>
       </c>
       <c r="H24">
-        <v>20.59061559182435</v>
+        <v>20.15541184518678</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.19177213257436</v>
+        <v>13.07330520716382</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.800161585789</v>
+        <v>17.35249514093726</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.68256247577874</v>
+        <v>13.43940998384724</v>
       </c>
       <c r="C25">
-        <v>4.039721910978551</v>
+        <v>7.097085247436416</v>
       </c>
       <c r="D25">
-        <v>6.184846114730412</v>
+        <v>7.743648534343624</v>
       </c>
       <c r="E25">
-        <v>12.43019486242222</v>
+        <v>15.78310389107838</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.76003424880606</v>
+        <v>69.41515658523478</v>
       </c>
       <c r="H25">
-        <v>20.31262747223261</v>
+        <v>18.9961004100576</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.014080264389</v>
+        <v>11.83355954839001</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.5356433801687</v>
+        <v>15.6314231906015</v>
       </c>
       <c r="N25">
         <v>0</v>
